--- a/mageproductcsv/resources/wmf-boiler-pot.xlsx
+++ b/mageproductcsv/resources/wmf-boiler-pot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1640" windowWidth="25360" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>category</t>
   </si>
@@ -45,117 +45,159 @@
     <t>short_description</t>
   </si>
   <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>WMF烧水壶</t>
+  </si>
+  <si>
+    <t>产品特点：隐藏式不锈钢加热；?无绳电水壶一个单独的基本单位，包括电缆退；?外部水位指示器；?可拆洗的水垢水过滤器；?舒适的单手开盖按钮；?由于干燥和过热保护的高安全性，阻止烹饪和自动盖锁。容量：1.6L。功率：3000W快速加热。材质：医用不锈钢壶体。</t>
+  </si>
+  <si>
+    <t>WMF福腾宝大容量不锈钢304烧水壶（329802）</t>
+  </si>
+  <si>
+    <t>WMF福腾宝大容量不锈钢304烧水壶（329802）-「德藝緻」德國精品百貨</t>
+  </si>
+  <si>
+    <t>欢迎前来「德藝緻」德國精品百貨，选购WMF福腾宝大容量不锈钢304烧水壶（329802）,想了解更多WMF福腾宝大容量不锈钢304烧水壶（329802），请进入「德藝緻」德國精品百貨，任您选购。</t>
+  </si>
+  <si>
+    <t>隐藏式不锈钢加热；?无绳电水壶一个单独的基本单位，包括电缆退；?外部水位指示器；?可拆洗的水垢水过滤器；?舒适的单手开盖按钮；?由于干燥和过热保护的高安全性，阻止烹饪和自动盖锁。</t>
+  </si>
+  <si>
+    <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/1107745999/T2ScZoXf0XXXXXXXXX_!!1107745999.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/1107745999/T2G_wnXbFaXXXXXXXX_!!1107745999.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/1107745999/T2sE7mXo4XXXXXXXXX_!!1107745999.jpg' /&gt;</t>
+  </si>
+  <si>
+    <t>WMF</t>
+  </si>
+  <si>
+    <t>产品特点：Cromargan亚光；肖特DURAN玻璃耐热，稳定，无味，易清洁；2400瓦特快速加热；可隐藏式电线水壶，与坐底相独立，方便使用；外部有水位指示器；可拆卸，可清洗的过滤网；按下按钮即可单手打开盖子；高安全性，有干烧检测和过热保护，自动锁盖。容量：1.6L。功率：2400W快速加热。材质：医用不锈钢壶体。</t>
+  </si>
+  <si>
+    <t>WMF福腾宝lono医用不锈钢壶体烧水壶（329861）</t>
+  </si>
+  <si>
+    <t>WMF福腾宝lono医用不锈钢壶体烧水壶（329861）-「德藝緻」德國精品百貨</t>
+  </si>
+  <si>
+    <t>欢迎前来「德藝緻」德國精品百貨，选购WMF福腾宝lono医用不锈钢壶体烧水壶（329861）,想了解更多WMF福腾宝lono医用不锈钢壶体烧水壶（329861），请进入「德藝緻」德國精品百貨，任您选购。</t>
+  </si>
+  <si>
+    <t>Cromargan亚光；肖特DURAN玻璃耐热，稳定，无味，易清洁；2400瓦特快速加热；可隐藏式电线水壶，与坐底相独立，方便使用；外部有水位指示器；可拆卸，可清洗的过滤网；按下按钮即可单手打开盖子；高安全性，有干烧检测和过热保护，自动锁盖。</t>
+  </si>
+  <si>
+    <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/2436535735/TB21N5ekXXXXXbaXXXXXXXXXXXX-2436535735.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/655622684/TB2VukxiFXXXXXJXXXXXXXXXXXX_!!655622684-0-taoxiaopu_sell.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/655622684/TB2.W3ciFXXXXXMXpXXXXXXXXXX_!!655622684-0-taoxiaopu_sell.jpg' /&gt;</t>
+  </si>
+  <si>
+    <t>产品特点：*Cromargan水壶材质为不锈钢 18／10；*容量：1.6升；*隐藏式不锈钢发热元件；*独立的电热水壶，包括电缆退进底盘隐藏式设计； *外部水位指示器；*开关指示亮起；*可拆洗水垢的水过滤器 *橡胶防滑手柄最大的舒适和安全；*手开盖，按下一个按钮；* 220- 240 V测试版，50/60赫兹，2500-3000W。容量：1.6L。功率：3000W快速加热。材质：医用不锈钢壶体。</t>
+  </si>
+  <si>
+    <t>WMF福腾宝豪华版6档温控烧水壶（329891）</t>
+  </si>
+  <si>
+    <t>WMF福腾宝豪华版6档温控烧水壶（329891）-「德藝緻」德國精品百貨</t>
+  </si>
+  <si>
+    <t>欢迎前来「德藝緻」德國精品百貨，选购WMF福腾宝豪华版6档温控烧水壶（329891）,想了解更多WMF福腾宝豪华版6档温控烧水壶（329891），请进入「德藝緻」德國精品百貨，任您选购。</t>
+  </si>
+  <si>
+    <t>*Cromargan水壶材质为不锈钢 18／10；*容量：1.6升；*隐藏式不锈钢发热元件；*独立的电热水壶，包括电缆退进底盘隐藏式设计； *外部水位指示器；*开关指示亮起；*可拆洗水垢的水过滤器 *橡胶防滑手柄最大的舒适和安全；*手开盖，按下一个按钮；* 220- 240 V测试版，50/60赫兹，2500-3000W。</t>
+  </si>
+  <si>
+    <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/1745490559/TB2M8UZeXXXXXXFXpXXXXXXXXXX-1745490559.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/1745490559/TB28u33eXXXXXc5XXXXXXXXXXXX-1745490559.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/67553121/T2W3coXcFaXXXXXXXX_!!67553121.jpg' /&gt;</t>
+  </si>
+  <si>
+    <t>产品特点：1.单手即可操作：握柄精心的设计，采用橡胶制成从而起到防滑作用，并根据人体工程学设计。2.刻度表清洗：多刻度选择，精确控制水量，省时省电省力。优雅的湖蓝色背光灯，给厨房添加一份宁静。3.分离式电路设计：底座壶体分开，增加安全系数。4.可拆卸滤网：壶嘴滤网可拆卸，便于清理。 独特的外形设计能有效防止热水的溢出。5.高安全性：具有防烧干，过热保护，自动断电和壶盖关闭结构功能6.简约设计与更好的不锈钢材料：采用不锈钢 Cromargan? 材料，更有光泽，轻松护理保养，Cromargan?是WMF不锈钢 18／10（合金含18％的铬和10％的镍）的注册商标。容量：1.2L。功率：3000W快速加热。材质：医用不锈钢壶体。</t>
+  </si>
+  <si>
+    <t>WMF福腾宝Terra 系列1.2L烧水壶（329876）</t>
+  </si>
+  <si>
+    <t>WMF福腾宝Terra 系列1.2L烧水壶（329876）-「德藝緻」德國精品百貨</t>
+  </si>
+  <si>
+    <t>欢迎前来「德藝緻」德國精品百貨，选购WMF福腾宝Terra 系列1.2L烧水壶（329876）,想了解更多WMF福腾宝Terra 系列1.2L烧水壶（329876），请进入「德藝緻」德國精品百貨，任您选购。</t>
+  </si>
+  <si>
+    <t>1.单手即可操作：握柄精心的设计，采用橡胶制成从而起到防滑作用，并根据人体工程学设计。2.刻度表清洗：多刻度选择，精确控制水量，省时省电省力。优雅的湖蓝色背光灯，给厨房添加一份宁静。3.分离式电路设计：底座壶体分开，增加安全系数。4.可拆卸滤网：壶嘴滤网可拆卸，便于清理。 独特的外形设计能有效防止热水的溢出。5.高安全性：具有防烧干，过热保护，自动断电和壶盖关闭结构功能6.简约设计与更好的不锈钢材料：采用不锈钢 Cromargan? 材料，更有光泽，轻松护理保养，Cromargan?是WMF不锈钢 18／10（合金含18％的铬和10％的镍）的注册商标</t>
+  </si>
+  <si>
+    <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/70248161/TB2GJVdfVXXXXbpXpXXXXXXXXXX_!!70248161.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/20348257/TB2SKlCcpXXXXawXpXXXXXXXXXX-20348257.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/20348257/TB2eqBJcpXXXXXlXXXXXXXXXXXX-20348257.jpg' /&gt;</t>
+  </si>
+  <si>
     <t>img-cover</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>WMF烧水壶</t>
-  </si>
-  <si>
-    <t>产品特点：隐藏式不锈钢加热；?无绳电水壶一个单独的基本单位，包括电缆退；?外部水位指示器；?可拆洗的水垢水过滤器；?舒适的单手开盖按钮；?由于干燥和过热保护的高安全性，阻止烹饪和自动盖锁。容量：1.6L。功率：3000W快速加热。材质：医用不锈钢壶体。</t>
-  </si>
-  <si>
-    <t>WMF福腾宝大容量不锈钢304烧水壶（329802）</t>
-  </si>
-  <si>
-    <t>WMF福腾宝大容量不锈钢304烧水壶（329802）-「德藝緻」德國精品百貨</t>
-  </si>
-  <si>
-    <t>欢迎前来「德藝緻」德國精品百貨，选购WMF福腾宝大容量不锈钢304烧水壶（329802）,想了解更多WMF福腾宝大容量不锈钢304烧水壶（329802），请进入「德藝緻」德國精品百貨，任您选购。</t>
-  </si>
-  <si>
-    <t>隐藏式不锈钢加热；?无绳电水壶一个单独的基本单位，包括电缆退；?外部水位指示器；?可拆洗的水垢水过滤器；?舒适的单手开盖按钮；?由于干燥和过热保护的高安全性，阻止烹饪和自动盖锁。</t>
-  </si>
-  <si>
-    <t>wmf-boilerpot-304-329802.jpg</t>
-  </si>
-  <si>
-    <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/1107745999/T2ScZoXf0XXXXXXXXX_!!1107745999.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/1107745999/T2G_wnXbFaXXXXXXXX_!!1107745999.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/1107745999/T2sE7mXo4XXXXXXXXX_!!1107745999.jpg' /&gt;</t>
-  </si>
-  <si>
-    <t>WMF</t>
-  </si>
-  <si>
-    <t>产品特点：Cromargan亚光；肖特DURAN玻璃耐热，稳定，无味，易清洁；2400瓦特快速加热；可隐藏式电线水壶，与坐底相独立，方便使用；外部有水位指示器；可拆卸，可清洗的过滤网；按下按钮即可单手打开盖子；高安全性，有干烧检测和过热保护，自动锁盖。容量：1.6L。功率：2400W快速加热。材质：医用不锈钢壶体。</t>
-  </si>
-  <si>
-    <t>WMF福腾宝lono医用不锈钢壶体烧水壶（329861）</t>
-  </si>
-  <si>
-    <t>WMF福腾宝lono医用不锈钢壶体烧水壶（329861）-「德藝緻」德國精品百貨</t>
-  </si>
-  <si>
-    <t>欢迎前来「德藝緻」德國精品百貨，选购WMF福腾宝lono医用不锈钢壶体烧水壶（329861）,想了解更多WMF福腾宝lono医用不锈钢壶体烧水壶（329861），请进入「德藝緻」德國精品百貨，任您选购。</t>
-  </si>
-  <si>
-    <t>Cromargan亚光；肖特DURAN玻璃耐热，稳定，无味，易清洁；2400瓦特快速加热；可隐藏式电线水壶，与坐底相独立，方便使用；外部有水位指示器；可拆卸，可清洗的过滤网；按下按钮即可单手打开盖子；高安全性，有干烧检测和过热保护，自动锁盖。</t>
-  </si>
-  <si>
-    <t>wmf-lono-329861.jpg</t>
-  </si>
-  <si>
-    <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/2436535735/TB21N5ekXXXXXbaXXXXXXXXXXXX-2436535735.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/655622684/TB2VukxiFXXXXXJXXXXXXXXXXXX_!!655622684-0-taoxiaopu_sell.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/655622684/TB2.W3ciFXXXXXMXpXXXXXXXXXX_!!655622684-0-taoxiaopu_sell.jpg' /&gt;</t>
-  </si>
-  <si>
-    <t>产品特点：*Cromargan水壶材质为不锈钢 18／10；*容量：1.6升；*隐藏式不锈钢发热元件；*独立的电热水壶，包括电缆退进底盘隐藏式设计； *外部水位指示器；*开关指示亮起；*可拆洗水垢的水过滤器 *橡胶防滑手柄最大的舒适和安全；*手开盖，按下一个按钮；* 220- 240 V测试版，50/60赫兹，2500-3000W。容量：1.6L。功率：3000W快速加热。材质：医用不锈钢壶体。</t>
-  </si>
-  <si>
-    <t>WMF福腾宝豪华版6档温控烧水壶（329891）</t>
-  </si>
-  <si>
-    <t>WMF福腾宝豪华版6档温控烧水壶（329891）-「德藝緻」德國精品百貨</t>
-  </si>
-  <si>
-    <t>欢迎前来「德藝緻」德國精品百貨，选购WMF福腾宝豪华版6档温控烧水壶（329891）,想了解更多WMF福腾宝豪华版6档温控烧水壶（329891），请进入「德藝緻」德國精品百貨，任您选购。</t>
-  </si>
-  <si>
-    <t>*Cromargan水壶材质为不锈钢 18／10；*容量：1.6升；*隐藏式不锈钢发热元件；*独立的电热水壶，包括电缆退进底盘隐藏式设计； *外部水位指示器；*开关指示亮起；*可拆洗水垢的水过滤器 *橡胶防滑手柄最大的舒适和安全；*手开盖，按下一个按钮；* 220- 240 V测试版，50/60赫兹，2500-3000W。</t>
-  </si>
-  <si>
-    <t>wmf-luxury-6stage-329891.jpg</t>
-  </si>
-  <si>
-    <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/1745490559/TB2M8UZeXXXXXXFXpXXXXXXXXXX-1745490559.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/1745490559/TB28u33eXXXXXc5XXXXXXXXXXXX-1745490559.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/67553121/T2W3coXcFaXXXXXXXX_!!67553121.jpg' /&gt;</t>
-  </si>
-  <si>
-    <t>产品特点：1.单手即可操作：握柄精心的设计，采用橡胶制成从而起到防滑作用，并根据人体工程学设计。2.刻度表清洗：多刻度选择，精确控制水量，省时省电省力。优雅的湖蓝色背光灯，给厨房添加一份宁静。3.分离式电路设计：底座壶体分开，增加安全系数。4.可拆卸滤网：壶嘴滤网可拆卸，便于清理。 独特的外形设计能有效防止热水的溢出。5.高安全性：具有防烧干，过热保护，自动断电和壶盖关闭结构功能6.简约设计与更好的不锈钢材料：采用不锈钢 Cromargan? 材料，更有光泽，轻松护理保养，Cromargan?是WMF不锈钢 18／10（合金含18％的铬和10％的镍）的注册商标。容量：1.2L。功率：3000W快速加热。材质：医用不锈钢壶体。</t>
-  </si>
-  <si>
-    <t>WMF福腾宝Terra 系列1.2L烧水壶（329876）</t>
-  </si>
-  <si>
-    <t>WMF福腾宝Terra 系列1.2L烧水壶（329876）-「德藝緻」德國精品百貨</t>
-  </si>
-  <si>
-    <t>欢迎前来「德藝緻」德國精品百貨，选购WMF福腾宝Terra 系列1.2L烧水壶（329876）,想了解更多WMF福腾宝Terra 系列1.2L烧水壶（329876），请进入「德藝緻」德國精品百貨，任您选购。</t>
-  </si>
-  <si>
-    <t>1.单手即可操作：握柄精心的设计，采用橡胶制成从而起到防滑作用，并根据人体工程学设计。2.刻度表清洗：多刻度选择，精确控制水量，省时省电省力。优雅的湖蓝色背光灯，给厨房添加一份宁静。3.分离式电路设计：底座壶体分开，增加安全系数。4.可拆卸滤网：壶嘴滤网可拆卸，便于清理。 独特的外形设计能有效防止热水的溢出。5.高安全性：具有防烧干，过热保护，自动断电和壶盖关闭结构功能6.简约设计与更好的不锈钢材料：采用不锈钢 Cromargan? 材料，更有光泽，轻松护理保养，Cromargan?是WMF不锈钢 18／10（合金含18％的铬和10％的镍）的注册商标</t>
-  </si>
-  <si>
-    <t>wmf-terra-1.2Lpot329876.jpg</t>
-  </si>
-  <si>
-    <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/70248161/TB2GJVdfVXXXXbpXpXXXXXXXXXX_!!70248161.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/20348257/TB2SKlCcpXXXXawXpXXXXXXXXXX-20348257.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/20348257/TB2eqBJcpXXXXXlXXXXXXXXXXXX-20348257.jpg' /&gt;</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-boilerpot-304-329802.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-lono-pot-329861.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-luxury-6stage-329891.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-terra-boilingcooker-1.jpg</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>url-key</t>
+  </si>
+  <si>
+    <t>wmf-boilerpot-304-329802</t>
+  </si>
+  <si>
+    <t>wmf-lono-pot-329861</t>
+  </si>
+  <si>
+    <t>wmf-luxury-6stage-329891</t>
+  </si>
+  <si>
+    <t>wmf-terra-boilingcooker-1</t>
+  </si>
+  <si>
+    <t>zh-wmf-boilerpot-304-329802</t>
+  </si>
+  <si>
+    <t>zh-wmf-lono-pot-329861</t>
+  </si>
+  <si>
+    <t>zh-wmf-luxury-6stage-329891</t>
+  </si>
+  <si>
+    <t>zh-wmf-terra-boilingcooker-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,22 +220,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,13 +569,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="62.6640625" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -557,315 +608,188 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3">
+        <v>165</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
-        <v>165</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
-        <v>112</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3">
+        <v>139.99</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2">
-        <v>139.99</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>165</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2">
-        <v>112</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2">
-        <v>139.99</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
